--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2936871.254099955</v>
+        <v>2934326.66140567</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557641.841275435</v>
+        <v>8557641.841275437</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>130.1712092340068</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>96.86671316392842</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.16533875680197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>15.40229248514501</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>358.5527168460352</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>212.573575257966</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760033</v>
+        <v>92.85788772760017</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425895</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911913186</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>162.0144646145863</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.04608921951304</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058913</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89889574101282</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>216.4127801057179</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>318.4126822198483</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582092</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.91798226983224</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612562</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92847288552425</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.2147151485299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176019</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433441</v>
+        <v>540.7559564928857</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433441</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268592</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268592</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>133.0228471103742</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832529</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.9240526153388</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>179.4710233342118</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>219.9797031869067</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>219.9797031869067</v>
       </c>
       <c r="W3" t="n">
-        <v>732.7636226483087</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="X3" t="n">
-        <v>543.3438376318237</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="Y3" t="n">
-        <v>353.9240526153388</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230183</v>
@@ -4519,19 +4519,19 @@
         <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.718566540655</v>
+        <v>731.3583444302271</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.544105080013</v>
+        <v>362.3958274898154</v>
       </c>
       <c r="D5" t="n">
-        <v>1341.544105080013</v>
+        <v>362.3958274898154</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>147.6750444009608</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921615</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
         <v>128.353902506253</v>
@@ -4562,55 +4562,55 @@
         <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746995</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603077</v>
+        <v>521.204941603079</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709192</v>
+        <v>823.5081935709219</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582757</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079245</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540655</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540655</v>
+        <v>1586.99497559824</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540655</v>
+        <v>1375.135640734675</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540655</v>
+        <v>1121.497676406039</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540655</v>
+        <v>1121.497676406039</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540655</v>
+        <v>1121.497676406039</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540655</v>
+        <v>1121.497676406039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540655</v>
+        <v>731.3583444302271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.0110855978847</v>
+        <v>295.6048725869069</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55805631675773</v>
+        <v>121.1518433057799</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675773</v>
+        <v>121.1518433057799</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675773</v>
+        <v>121.1518433057799</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675773</v>
+        <v>121.1518433057799</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675773</v>
+        <v>121.1518433057799</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787551</v>
+        <v>61.66788464787581</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806067</v>
+        <v>186.1577239806074</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189986</v>
+        <v>399.8722171189997</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223513</v>
+        <v>668.6238185223528</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352496</v>
+        <v>958.8971200352516</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1303.08776890215</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906552</v>
+        <v>1107.547150621905</v>
       </c>
       <c r="U6" t="n">
-        <v>1282.227686548384</v>
+        <v>879.4320085774617</v>
       </c>
       <c r="V6" t="n">
-        <v>1047.075578316641</v>
+        <v>879.4320085774617</v>
       </c>
       <c r="W6" t="n">
-        <v>792.8382215884395</v>
+        <v>879.4320085774617</v>
       </c>
       <c r="X6" t="n">
-        <v>584.9867213829067</v>
+        <v>671.5805083719289</v>
       </c>
       <c r="Y6" t="n">
-        <v>377.2264226179528</v>
+        <v>463.820209606975</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.6108786570004</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="C7" t="n">
-        <v>184.6746957290935</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574708</v>
+        <v>64.24066662574738</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584119</v>
+        <v>132.1299861584125</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347977</v>
+        <v>206.9680378347986</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195373</v>
+        <v>287.8841338195385</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934726</v>
+        <v>342.310156193474</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858015</v>
+        <v>369.8190495858031</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858015</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858015</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858015</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858015</v>
+        <v>108.1933045400031</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858015</v>
+        <v>108.1933045400031</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858015</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858015</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858015</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858015</v>
+        <v>34.55805631675783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.162526029888</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>742.2000090894765</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>383.9343104827259</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4802,19 +4802,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1351.910009448964</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>978.4442511878838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1111.162526029888</v>
+        <v>588.304919212072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>801.6493618097749</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>593.797861604242</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.6408822103593</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>169.7046992824524</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4984,28 +4984,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>121.9985297867048</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861288</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>390.8232499582219</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.823211978721</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633625</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.291686000764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794877</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757916</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598987</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163686</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6470,40 +6470,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7202,19 +7202,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,7 +7731,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44677382459743</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>61.40075786968245</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594809</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740460.6509162886</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365059</v>
@@ -26366,10 +26366,10 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253128</v>
+        <v>270592.3620253141</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231923</v>
+        <v>115410.054023191</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742651</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854483</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881986</v>
+        <v>62913.63765882015</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197476</v>
+        <v>27875.25362197452</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263461</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>14826.69604186734</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936832</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819481</v>
+        <v>-228993.7633819483</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136135</v>
+        <v>144252.9847136128</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166789</v>
+        <v>323073.3784166801</v>
       </c>
       <c r="E6" t="n">
-        <v>-31317.8237035341</v>
+        <v>-31352.56162896971</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.3838707312</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.3838707311</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="H6" t="n">
-        <v>570125.3838707312</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.3838707311</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="J6" t="n">
-        <v>521060.4391421866</v>
+        <v>521025.7012167509</v>
       </c>
       <c r="K6" t="n">
-        <v>507211.7462119115</v>
+        <v>507177.0082864754</v>
       </c>
       <c r="L6" t="n">
-        <v>542250.1302487566</v>
+        <v>542215.3923233206</v>
       </c>
       <c r="M6" t="n">
-        <v>412979.0033191335</v>
+        <v>412944.2653936974</v>
       </c>
       <c r="N6" t="n">
-        <v>570125.3838707316</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="O6" t="n">
-        <v>570125.3838707317</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="P6" t="n">
-        <v>570125.3838707315</v>
+        <v>570090.6459452958</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.153287248944488e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.153287248944488e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.683778790059739e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950621</v>
+        <v>758.8996292950632</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,10 +26790,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594729</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.153287248944488e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.683778790059739e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821573</v>
+        <v>210.4296883821584</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262198</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931528</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666904</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931517</v>
+        <v>244.4501167931528</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.153287248944488e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931528</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666904</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.6046039560463</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871023</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>272.8643875145406</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>234.5296444041176</v>
+        <v>64.16939599459954</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098427</v>
+        <v>190.2804032921593</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.2051017684966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>6.720174924972355</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>169.3567948142957</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.9424068042587</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>10.74252923332942</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937511</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074787</v>
+        <v>44.33060630074775</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>63.81952600941278</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.7858909624242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304042</v>
+        <v>30.24193919304028</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27825,13 +27825,13 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2387475828152</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>166.3210615577627</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>63.51768785241347</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -27904,13 +27904,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.391328691216</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>132.6974907483801</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>18.15430933923925</v>
@@ -28056,7 +28056,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077024</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.751998711720717e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429367</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520272</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251178</v>
+        <v>481.4474502511787</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968103</v>
+        <v>535.7030533968111</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610701</v>
+        <v>544.3712888610709</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191493</v>
+        <v>514.0343715191501</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860967</v>
+        <v>438.7164434860973</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898988</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062489</v>
+        <v>56.20152915062497</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721892</v>
+        <v>354.4276051721897</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658088</v>
+        <v>413.6002979658094</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468669</v>
+        <v>424.5470671468675</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374456</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872497</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947727</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378886</v>
+        <v>6.579516597378895</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635569</v>
+        <v>96.75348224635583</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054715</v>
+        <v>61.53307486054723</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830805</v>
+        <v>5.847259438830813</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656356</v>
+        <v>0.07464586517656367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32011,7 +32011,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
         <v>790.8204499236507</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198423</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070466</v>
+        <v>167.9900634070472</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811908</v>
+        <v>245.6810352811914</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695376</v>
+        <v>305.3568201695384</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644792</v>
+        <v>314.9582252644799</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974626</v>
+        <v>283.9361600974634</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308278</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092705</v>
+        <v>27.38366498092725</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392315</v>
+        <v>215.8732253923155</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437911</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635336</v>
+        <v>293.2053550635342</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930017</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872841</v>
+        <v>68.38629016872869</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554481</v>
+        <v>29.98243465554501</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501495</v>
+        <v>68.57507023501523</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230892</v>
+        <v>75.59399159230924</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761579</v>
+        <v>81.73343028761607</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569211</v>
+        <v>54.97578017569239</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235242</v>
+        <v>27.78676100235265</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
